--- a/Doc/Plannings/PlanningPrévisionnel.xlsx
+++ b/Doc/Plannings/PlanningPrévisionnel.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marco.Rdrgs2\Code\TPI_Marco_Rodrigues\NimRL\Doc\Plannings\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1939794-1F87-4358-8D54-9EDF72BE0FF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E334FDC0-0402-4871-8964-E42C550DF257}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="6075" windowWidth="19440" windowHeight="15000" xr2:uid="{0EA389DD-0290-4413-B424-8C6FA9104819}"/>
   </bookViews>
@@ -122,9 +122,6 @@
     <t>PB : 02</t>
   </si>
   <si>
-    <t>Développement des controlles du joueur Humain (PB 02)</t>
-  </si>
-  <si>
     <t>Développement des parties automatiques (PB 03)</t>
   </si>
   <si>
@@ -158,9 +155,6 @@
     <t>Affichage du nombre d'allumettes prises (PB 11)</t>
   </si>
   <si>
-    <t>Création de la classe qui controlle la partie</t>
-  </si>
-  <si>
     <t>Création du systéme de Modes de Jeu</t>
   </si>
   <si>
@@ -168,6 +162,12 @@
   </si>
   <si>
     <t>Verification du respect des conventions de codage</t>
+  </si>
+  <si>
+    <t>Développement des contrôles du joueur Humain (PB 02)</t>
+  </si>
+  <si>
+    <t>Création de la classe qui contrôle la partie</t>
   </si>
 </sst>
 </file>
@@ -958,8 +958,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE0DD096-C7E5-4D09-9D9A-C3D700D57C79}">
   <dimension ref="A1:X49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="W27" sqref="W27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1480,7 +1480,7 @@
         <v>27</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="C20" s="6"/>
       <c r="D20" s="2"/>
@@ -1534,7 +1534,7 @@
     </row>
     <row r="22" spans="1:24" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C22" s="6"/>
       <c r="D22" s="2"/>
@@ -1561,7 +1561,7 @@
     </row>
     <row r="23" spans="1:24" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="9" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C23" s="6"/>
       <c r="D23" s="2"/>
@@ -1588,7 +1588,7 @@
     </row>
     <row r="24" spans="1:24" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="9" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C24" s="6"/>
       <c r="D24" s="2"/>
@@ -1615,7 +1615,7 @@
     </row>
     <row r="25" spans="1:24" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C25" s="6"/>
       <c r="D25" s="2"/>
@@ -1642,7 +1642,7 @@
     </row>
     <row r="26" spans="1:24" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C26" s="6"/>
       <c r="D26" s="2"/>
@@ -1669,7 +1669,7 @@
     </row>
     <row r="27" spans="1:24" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C27" s="6"/>
       <c r="D27" s="2"/>
@@ -1696,7 +1696,7 @@
     </row>
     <row r="28" spans="1:24" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C28" s="6"/>
       <c r="D28" s="2"/>
@@ -1750,7 +1750,7 @@
     </row>
     <row r="30" spans="1:24" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C30" s="6"/>
       <c r="D30" s="2"/>
@@ -1777,7 +1777,7 @@
     </row>
     <row r="31" spans="1:24" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C31" s="6"/>
       <c r="D31" s="2"/>
@@ -1804,7 +1804,7 @@
     </row>
     <row r="32" spans="1:24" ht="51.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C32" s="6"/>
       <c r="D32" s="2"/>
@@ -1831,7 +1831,7 @@
     </row>
     <row r="33" spans="2:24" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B33" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C33" s="6"/>
       <c r="D33" s="2"/>
@@ -1858,7 +1858,7 @@
     </row>
     <row r="34" spans="2:24" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B34" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C34" s="6"/>
       <c r="D34" s="2"/>
@@ -2018,7 +2018,7 @@
     </row>
     <row r="40" spans="2:24" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B40" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C40" s="6"/>
       <c r="D40" s="17"/>
@@ -2205,7 +2205,7 @@
     </row>
     <row r="47" spans="2:24" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B47" s="9" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C47" s="6"/>
       <c r="D47" s="2"/>
@@ -2232,7 +2232,7 @@
     </row>
     <row r="48" spans="2:24" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B48" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C48" s="6"/>
       <c r="D48" s="2"/>

--- a/Doc/Plannings/PlanningPrévisionnel.xlsx
+++ b/Doc/Plannings/PlanningPrévisionnel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marco.Rdrgs2\Code\TPI_Marco_Rodrigues\NimRL\Doc\Plannings\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E334FDC0-0402-4871-8964-E42C550DF257}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D735A2A3-E5DE-4FB4-BCD0-9249341369C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="6075" windowWidth="19440" windowHeight="15000" xr2:uid="{0EA389DD-0290-4413-B424-8C6FA9104819}"/>
   </bookViews>
@@ -958,8 +958,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE0DD096-C7E5-4D09-9D9A-C3D700D57C79}">
   <dimension ref="A1:X49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="W27" sqref="W27"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2224,8 +2224,7 @@
       <c r="Q47" s="11"/>
       <c r="R47" s="11"/>
       <c r="S47" s="11"/>
-      <c r="T47" s="11"/>
-      <c r="U47" s="18"/>
+      <c r="T47" s="18"/>
       <c r="V47" s="11"/>
       <c r="W47" s="11"/>
       <c r="X47" s="3"/>

--- a/Doc/Plannings/PlanningPrévisionnel.xlsx
+++ b/Doc/Plannings/PlanningPrévisionnel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marco.Rdrgs2\Code\TPI_Marco_Rodrigues\NimRL\Doc\Plannings\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D735A2A3-E5DE-4FB4-BCD0-9249341369C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{527CED69-430D-44FB-8485-4561779B7732}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="6075" windowWidth="19440" windowHeight="15000" xr2:uid="{0EA389DD-0290-4413-B424-8C6FA9104819}"/>
   </bookViews>
@@ -143,15 +143,9 @@
     <t>Sauvegarde de l'état de l'application (PB 07)</t>
   </si>
   <si>
-    <t>Créer l'accés ver le manuel utilisateur depuis l'application (PB 08)</t>
-  </si>
-  <si>
     <t>Affichage du joueur courant (PB 10)</t>
   </si>
   <si>
-    <t>Affichage des allumetes (PB 09)</t>
-  </si>
-  <si>
     <t>Affichage du nombre d'allumettes prises (PB 11)</t>
   </si>
   <si>
@@ -168,6 +162,12 @@
   </si>
   <si>
     <t>Création de la classe qui contrôle la partie</t>
+  </si>
+  <si>
+    <t>Créer l'accés vers le manuel utilisateur depuis l'application (PB 08)</t>
+  </si>
+  <si>
+    <t>Affichage des allumettes (PB 09)</t>
   </si>
 </sst>
 </file>
@@ -958,8 +958,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE0DD096-C7E5-4D09-9D9A-C3D700D57C79}">
   <dimension ref="A1:X49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+    <sheetView tabSelected="1" topLeftCell="A32" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="W35" sqref="W35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1480,7 +1480,7 @@
         <v>27</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C20" s="6"/>
       <c r="D20" s="2"/>
@@ -1561,7 +1561,7 @@
     </row>
     <row r="23" spans="1:24" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="9" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C23" s="6"/>
       <c r="D23" s="2"/>
@@ -1588,7 +1588,7 @@
     </row>
     <row r="24" spans="1:24" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="9" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C24" s="6"/>
       <c r="D24" s="2"/>
@@ -1615,7 +1615,7 @@
     </row>
     <row r="25" spans="1:24" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="9" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C25" s="6"/>
       <c r="D25" s="2"/>
@@ -1642,7 +1642,7 @@
     </row>
     <row r="26" spans="1:24" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="9" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="C26" s="6"/>
       <c r="D26" s="2"/>
@@ -1669,7 +1669,7 @@
     </row>
     <row r="27" spans="1:24" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C27" s="6"/>
       <c r="D27" s="2"/>
@@ -1696,7 +1696,7 @@
     </row>
     <row r="28" spans="1:24" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="9" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C28" s="6"/>
       <c r="D28" s="2"/>
@@ -1856,9 +1856,9 @@
       <c r="W33" s="11"/>
       <c r="X33" s="3"/>
     </row>
-    <row r="34" spans="2:24" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:24" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B34" s="9" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="C34" s="6"/>
       <c r="D34" s="2"/>
@@ -2205,7 +2205,7 @@
     </row>
     <row r="47" spans="2:24" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B47" s="9" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C47" s="6"/>
       <c r="D47" s="2"/>

--- a/Doc/Plannings/PlanningPrévisionnel.xlsx
+++ b/Doc/Plannings/PlanningPrévisionnel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marco.Rdrgs2\Code\TPI_Marco_Rodrigues\NimRL\Doc\Plannings\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{527CED69-430D-44FB-8485-4561779B7732}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BCB1BBB-A245-4CE3-AD03-9170A09549A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="6075" windowWidth="19440" windowHeight="15000" xr2:uid="{0EA389DD-0290-4413-B424-8C6FA9104819}"/>
   </bookViews>
@@ -958,8 +958,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE0DD096-C7E5-4D09-9D9A-C3D700D57C79}">
   <dimension ref="A1:X49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="W35" sqref="W35"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/Doc/Plannings/PlanningPrévisionnel.xlsx
+++ b/Doc/Plannings/PlanningPrévisionnel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marco.Rdrgs2\Code\TPI_Marco_Rodrigues\NimRL\Doc\Plannings\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BCB1BBB-A245-4CE3-AD03-9170A09549A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69516540-5DB0-45B4-9BF0-0EA2F2F0AECD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="6075" windowWidth="19440" windowHeight="15000" xr2:uid="{0EA389DD-0290-4413-B424-8C6FA9104819}"/>
   </bookViews>
@@ -958,8 +958,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE0DD096-C7E5-4D09-9D9A-C3D700D57C79}">
   <dimension ref="A1:X49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K36" sqref="K36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/Doc/Plannings/PlanningPrévisionnel.xlsx
+++ b/Doc/Plannings/PlanningPrévisionnel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marco.Rdrgs2\Code\TPI_Marco_Rodrigues\NimRL\Doc\Plannings\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69516540-5DB0-45B4-9BF0-0EA2F2F0AECD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{205B137A-99D5-4BA1-8EC4-F566C4141F72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="6075" windowWidth="19440" windowHeight="15000" xr2:uid="{0EA389DD-0290-4413-B424-8C6FA9104819}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
   <si>
     <t>Jours</t>
   </si>
@@ -168,6 +168,9 @@
   </si>
   <si>
     <t>Affichage des allumettes (PB 09)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -958,8 +961,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE0DD096-C7E5-4D09-9D9A-C3D700D57C79}">
   <dimension ref="A1:X49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K36" sqref="K36"/>
+    <sheetView tabSelected="1" topLeftCell="A36" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="U42" sqref="U42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1920,7 +1923,9 @@
       <c r="H36" s="2"/>
       <c r="I36" s="2"/>
       <c r="J36" s="2"/>
-      <c r="K36" s="2"/>
+      <c r="K36" s="2" t="s">
+        <v>44</v>
+      </c>
       <c r="L36" s="11"/>
       <c r="M36" s="11"/>
       <c r="N36" s="11"/>
